--- a/biology/Microbiologie/Blastocystida/Blastocystida.xlsx
+++ b/biology/Microbiologie/Blastocystida/Blastocystida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Blastocystida sont un ordre de chromistes de l'embranchement des Bigyra, et de la classe des Blastocystea.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 septembre 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 septembre 2022) :
 Blastocystidae A.G.Alexeieff, 1914
 Blastocystina Zierdt, 1988</t>
         </is>
@@ -595,9 +613,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blastocystida Belova, 1990[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blastocystida Belova, 1990.
 </t>
         </is>
       </c>
@@ -626,7 +646,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Belova, L.M. &amp; Kostenko, L.A. (1990). Blastocystis galli n. sp. (Protista: Rhizopoda) iz kishechnika domashnikh kur [Blastocystis galli sp. n. (Protista: Rhizopoda) from the intestine of domestic hens]. Parazitologiya (St. Petersburg) 24(2):  164-168, 3 figures, 2 tables. [in Russian with English abstract]</t>
         </is>
